--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85D1953-FAAF-4F7B-9B6D-293081BE4A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +24,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source\Editor\UnrealEd\Private\Commandlets\CookCommandlet.cpp</t>
+  </si>
+  <si>
+    <t>收集需要COOK的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::CollectFilesToCook(TArray&lt;FName&gt;&amp; FilesInPath, const TArray&lt;FString&gt;&amp; CookMaps, const TArray&lt;FString&gt;&amp; InCookDirectories, const TArray&lt;FString&gt; &amp;IniMapSections, ECookByTheBookOptions FilesToCookFlags, const TArrayView&lt;const ITargetPl</t>
+  </si>
+  <si>
+    <t>挨个发起COOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// add all the files for the requested platform to the cook list</t>
+  </si>
+  <si>
+    <t>for ( const FName&amp; FileFName : FilesInPath )</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (FileFName == NAME_None)</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>const FName PackageFileFName = GetPackageNameCache().GetCachedStandardFileName(FileFName);</t>
+  </si>
+  <si>
+    <t>if (PackageFileFName != NAME_None)</t>
+  </si>
+  <si>
+    <t>ExternalRequests-&gt;EnqueueUnique( UE::Cook::FFilePlatformRequest( PackageFileFName, TargetPlatforms ) );</t>
+  </si>
+  <si>
+    <t>else if (!FLinkerLoad::IsKnownMissingPackage(FileFName))</t>
+  </si>
+  <si>
+    <t>const FString FileName = FileFName.ToString();</t>
+  </si>
+  <si>
+    <t>LogCookerMessage( FString::Printf(TEXT("Unable to find package for cooking %s"), *FileName), EMessageSeverity::Warning );</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;UE::Cook::FExternalRequests&gt; ExternalRequests;</t>
+  </si>
+  <si>
+    <t>COOK队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起COOK，插入到队列中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么COOK没查明白？？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +123,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,9 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,22 +441,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E7D51-07EF-4DFE-BDC1-9A5941BC5F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,13 +95,58 @@
   <si>
     <t>怎么COOK没查明白？？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jashking.github.io/2021/07/15/2021-ue4-deterministic-cook/</t>
+  </si>
+  <si>
+    <t>D:/UnrealEngine/Engine/Engine/Binaries/Win64/UE4Editor-Cmd.exe</t>
+  </si>
+  <si>
+    <t>D:/UnrealProjects/Blank425/Blank425.uproject</t>
+  </si>
+  <si>
+    <t>-run=Cook</t>
+  </si>
+  <si>
+    <t>-TargetPlatform=WindowsNoEditor</t>
+  </si>
+  <si>
+    <t>-fileopenlog</t>
+  </si>
+  <si>
+    <t>-unversioned</t>
+  </si>
+  <si>
+    <t>-abslog=D:/UnrealEngine/Engine/Engine/Programs/AutomationTool/Saved/Cook-2021.12.07-15.47.10.txt</t>
+  </si>
+  <si>
+    <t>-stdout</t>
+  </si>
+  <si>
+    <t>-CrashForUAT</t>
+  </si>
+  <si>
+    <t>-unattended</t>
+  </si>
+  <si>
+    <t>-NoLogTimes</t>
+  </si>
+  <si>
+    <t>-UTF8Output</t>
+  </si>
+  <si>
+    <t>https://imzlp.com/posts/22570/</t>
+  </si>
+  <si>
+    <t>https://ue5wiki.com/wiki/e6148e24/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +183,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,11 +210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,146 +498,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C2B8A2-1F21-4121-9190-B329920161AE}">
+  <dimension ref="B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>20</v>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E7D51-07EF-4DFE-BDC1-9A5941BC5F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cmd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,13 +140,57 @@
   </si>
   <si>
     <t>https://ue5wiki.com/wiki/e6148e24/</t>
+  </si>
+  <si>
+    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
+  </si>
+  <si>
+    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
+  </si>
+  <si>
+    <t>CMD指令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在Debug-Editor模式下执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑器里面COOK资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的是：cmd.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/c ""D:/UE/UnrealEngine-4.27.2-release/Engine/Build/BatchFiles/RunUAT.bat" -ScriptsForProject="D:/Project/MyTest001/MyTest001.uproject" BuildCookRun -nocompileeditor -nop4 -project="D:/Project/MyTest001/MyTest001.uproject" -cook -skipstage -ue4exe="D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe"  -targetplatform=Win64 -ddc=DerivedDataBackendGraph -utf8output"</t>
+  </si>
+  <si>
+    <t>执行UAT里面的代码，内部在创建单独进程执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于有执行到工程里面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +233,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -219,6 +271,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,11 +776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C2B8A2-1F21-4121-9190-B329920161AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,4 +795,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2A354-D971-42BB-837E-BF279EFE2D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="cmd" sheetId="3" r:id="rId3"/>
+    <sheet name="COOK流程分析" sheetId="4" r:id="rId4"/>
+    <sheet name="COOK数据保存" sheetId="5" r:id="rId5"/>
+    <sheet name="优化" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,12 +188,195 @@
   </si>
   <si>
     <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
+  </si>
+  <si>
+    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(SolutionDir)MyProject004.uproject -skipcompile</t>
+  </si>
+  <si>
+    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Win64-Debug-Cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdLineParams= -run=Cook -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=F:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes -UTF8Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TGenericWindowsTargetPlatform&lt;0,0,0&gt;] = {LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, We...</t>
+  </si>
+  <si>
+    <t>CookByTheBook(Platforms);</t>
+  </si>
+  <si>
+    <t>bool UCookCommandlet::CookByTheBook( const TArray&lt;ITargetPlatform*&gt;&amp; Platforms)</t>
+  </si>
+  <si>
+    <t>UCookOnTheFlyServer *CookOnTheFlyServer = NewObject&lt;UCookOnTheFlyServer&gt;();</t>
+  </si>
+  <si>
+    <t>新建一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookOnTheFlyServer-&gt;Initialize(ECookMode::CookByTheBook, CookFlags, OutputDirectoryOverride);</t>
+  </si>
+  <si>
+    <t>执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookOnTheFlyServer-&gt;StartCookByTheBook(StartupOptions);</t>
+  </si>
+  <si>
+    <t>执行COOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
+  </si>
+  <si>
+    <t>FAssetRegistryModule&amp; AssetRegistryModule = FModuleManager::LoadModuleChecked&lt;FAssetRegistryModule&gt;(TEXT("AssetRegistry"));</t>
+  </si>
+  <si>
+    <t>获取AssetRegistry模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Find all the localized packages and map them back to their source package</t>
+  </si>
+  <si>
+    <t>获取本地语言相关的包和地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取左侧所有目录下面的L10N/当前语言目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取这些目录下面所有的资源（递归）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetData&gt; AssetDataForCultures;</t>
+  </si>
+  <si>
+    <t>AssetRegistry-&gt;GetAssets(Filter, AssetDataForCultures);</t>
+  </si>
+  <si>
+    <t>根据上面资源的名字，建立一个MAP映射&lt;packagename, list&lt;多语言下各个资源&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加黑名单的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册多语言资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取从不cook的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设置Shader的平台对应格式？？？ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置全局的shader???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Open the shader code library for the current project or the current DLC pack, depending on which we are cooking</t>
+  </si>
+  <si>
+    <t>开始设置项目自己的shader，名字就是工程名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有目录下（引擎+工程）的软依赖的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始收集需要COOK的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要COOK的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始COOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>1. We have cooked a map (configurable asset type)</t>
+  </si>
+  <si>
+    <t>2. We have cooked non-map packages and...</t>
+  </si>
+  <si>
+    <t>死循环，一直COOK，一边COOk一边GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UTexture::SerializeCookedPlatformData(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>以Utexture举例，内部去掉了很多EDITOR宏的判断，数据量变少了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.asset </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.uexp</t>
+  </si>
+  <si>
+    <t>为啥要分开了？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
+  </si>
+  <si>
+    <t>FString NewFileName = FPaths::GetBaseFilename(FileName, false) + TEXT(".uexp");</t>
+  </si>
+  <si>
+    <t>NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,6 +476,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>226882</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61DB024-6DBD-A765-F585-63E860761099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8436380" y="5514974"/>
+          <a:ext cx="8249702" cy="3361625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>569539</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0F0F3B-5F8E-6C02-060F-DC782448BEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1685925"/>
+          <a:ext cx="15685714" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,15 +1083,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>39</v>
@@ -824,7 +1124,7 @@
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -888,7 +1188,326 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B14F49-9D40-4C98-8EF4-8BC916FE8D1F}">
+  <dimension ref="B4:H58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D42" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D46" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A78BCA5-8B06-43AA-A2B6-4D9C2043FA8C}">
+  <dimension ref="C3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BE13AA-B6DF-463C-97CB-36469B9323F0}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2A354-D971-42BB-837E-BF279EFE2D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="cmd" sheetId="3" r:id="rId3"/>
-    <sheet name="COOK流程分析" sheetId="4" r:id="rId4"/>
-    <sheet name="COOK数据保存" sheetId="5" r:id="rId5"/>
-    <sheet name="优化" sheetId="6" r:id="rId6"/>
+    <sheet name="COOK的类型" sheetId="2" r:id="rId2"/>
+    <sheet name="Archive判断是否ISCooking" sheetId="9" r:id="rId3"/>
+    <sheet name="cmd" sheetId="3" r:id="rId4"/>
+    <sheet name="COOK流程分析" sheetId="4" r:id="rId5"/>
+    <sheet name="图片COOK数据保存" sheetId="5" r:id="rId6"/>
+    <sheet name="图片COOK数据加载" sheetId="7" r:id="rId7"/>
+    <sheet name="优化" sheetId="6" r:id="rId8"/>
+    <sheet name="Shader怎么COOK" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,283 +103,537 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D:/UnrealEngine/Engine/Engine/Binaries/Win64/UE4Editor-Cmd.exe</t>
+  </si>
+  <si>
+    <t>D:/UnrealProjects/Blank425/Blank425.uproject</t>
+  </si>
+  <si>
+    <t>-run=Cook</t>
+  </si>
+  <si>
+    <t>-TargetPlatform=WindowsNoEditor</t>
+  </si>
+  <si>
+    <t>-fileopenlog</t>
+  </si>
+  <si>
+    <t>-unversioned</t>
+  </si>
+  <si>
+    <t>-abslog=D:/UnrealEngine/Engine/Engine/Programs/AutomationTool/Saved/Cook-2021.12.07-15.47.10.txt</t>
+  </si>
+  <si>
+    <t>-stdout</t>
+  </si>
+  <si>
+    <t>-CrashForUAT</t>
+  </si>
+  <si>
+    <t>-unattended</t>
+  </si>
+  <si>
+    <t>-NoLogTimes</t>
+  </si>
+  <si>
+    <t>-UTF8Output</t>
+  </si>
+  <si>
+    <t>https://imzlp.com/posts/22570/</t>
+  </si>
+  <si>
+    <t>https://ue5wiki.com/wiki/e6148e24/</t>
+  </si>
+  <si>
+    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
+  </si>
+  <si>
+    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
+  </si>
+  <si>
+    <t>CMD指令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在Debug-Editor模式下执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑器里面COOK资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用的是：cmd.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/c ""D:/UE/UnrealEngine-4.27.2-release/Engine/Build/BatchFiles/RunUAT.bat" -ScriptsForProject="D:/Project/MyTest001/MyTest001.uproject" BuildCookRun -nocompileeditor -nop4 -project="D:/Project/MyTest001/MyTest001.uproject" -cook -skipstage -ue4exe="D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe"  -targetplatform=Win64 -ddc=DerivedDataBackendGraph -utf8output"</t>
+  </si>
+  <si>
+    <t>执行UAT里面的代码，内部在创建单独进程执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于有执行到工程里面，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
+  </si>
+  <si>
+    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(SolutionDir)MyProject004.uproject -skipcompile</t>
+  </si>
+  <si>
+    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Win64-Debug-Cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdLineParams= -run=Cook -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=F:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes -UTF8Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TGenericWindowsTargetPlatform&lt;0,0,0&gt;] = {LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, We...</t>
+  </si>
+  <si>
+    <t>CookByTheBook(Platforms);</t>
+  </si>
+  <si>
+    <t>bool UCookCommandlet::CookByTheBook( const TArray&lt;ITargetPlatform*&gt;&amp; Platforms)</t>
+  </si>
+  <si>
+    <t>UCookOnTheFlyServer *CookOnTheFlyServer = NewObject&lt;UCookOnTheFlyServer&gt;();</t>
+  </si>
+  <si>
+    <t>新建一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookOnTheFlyServer-&gt;Initialize(ECookMode::CookByTheBook, CookFlags, OutputDirectoryOverride);</t>
+  </si>
+  <si>
+    <t>执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookOnTheFlyServer-&gt;StartCookByTheBook(StartupOptions);</t>
+  </si>
+  <si>
+    <t>执行COOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
+  </si>
+  <si>
+    <t>FAssetRegistryModule&amp; AssetRegistryModule = FModuleManager::LoadModuleChecked&lt;FAssetRegistryModule&gt;(TEXT("AssetRegistry"));</t>
+  </si>
+  <si>
+    <t>获取AssetRegistry模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Find all the localized packages and map them back to their source package</t>
+  </si>
+  <si>
+    <t>获取本地语言相关的包和地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取左侧所有目录下面的L10N/当前语言目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取这些目录下面所有的资源（递归）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetData&gt; AssetDataForCultures;</t>
+  </si>
+  <si>
+    <t>AssetRegistry-&gt;GetAssets(Filter, AssetDataForCultures);</t>
+  </si>
+  <si>
+    <t>根据上面资源的名字，建立一个MAP映射&lt;packagename, list&lt;多语言下各个资源&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加黑名单的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册多语言资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取从不cook的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设置Shader的平台对应格式？？？ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置全局的shader???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Open the shader code library for the current project or the current DLC pack, depending on which we are cooking</t>
+  </si>
+  <si>
+    <t>开始设置项目自己的shader，名字就是工程名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有目录下（引擎+工程）的软依赖的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始收集需要COOK的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要COOK的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始COOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>1. We have cooked a map (configurable asset type)</t>
+  </si>
+  <si>
+    <t>2. We have cooked non-map packages and...</t>
+  </si>
+  <si>
+    <t>死循环，一直COOK，一边COOk一边GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UTexture::SerializeCookedPlatformData(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>以Utexture举例，内部去掉了很多EDITOR宏的判断，数据量变少了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.asset </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.uexp</t>
+  </si>
+  <si>
+    <t>为啥要分开了？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
+  </si>
+  <si>
+    <t>FString NewFileName = FPaths::GetBaseFilename(FileName, false) + TEXT(".uexp");</t>
+  </si>
+  <si>
+    <t>NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
+  </si>
+  <si>
+    <t>每一个可以被COOK的资源对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部都会存在一个类似RunningPlatformData的变量，就是其各个平台COOK数据管理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在序列化里面会进行数据读取或保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？保存？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UTexture2D::Serialize(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>各个类型序列化入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bCooked = Ar.IsCooking();</t>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; bCooked;</t>
+  </si>
+  <si>
+    <t>if (Ar.IsCooking() || bCooked)</t>
+  </si>
+  <si>
+    <t>SerializeCookedPlatformData(Ar);</t>
+  </si>
+  <si>
+    <t>如果是COOKING中或者已经COOK过的数据，则执行特殊的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK数据处理：主要分为两类：1编辑器下面的COOK处理  2非编辑器下读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器下面的COOK过程处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器读取处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个平台下保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个类内部都有一个平台相关的PlatformData类，例如：FTexturePlatformData* PlatformData;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New一个上面指针的对象，然后执行序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunningPlatformData = new FTexturePlatformData();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunningPlatformData-&gt;SerializeCooked(Ar, this, bStreamable);</t>
+  </si>
+  <si>
+    <t>这个是走COOK的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面是编辑器模式下非COOK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginCachePlatformData();</t>
+  </si>
+  <si>
+    <t>内部也是New一个PlatformData对象，执行Cache接口？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformDataLink-&gt;Cache(*this, BuildSettings.GetData(), CacheFlags, Compressor);</t>
+  </si>
+  <si>
+    <t>这个其实就是从CacheDerivedData里面读取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://jashking.github.io/2021/07/15/2021-ue4-deterministic-cook/</t>
-  </si>
-  <si>
-    <t>D:/UnrealEngine/Engine/Engine/Binaries/Win64/UE4Editor-Cmd.exe</t>
-  </si>
-  <si>
-    <t>D:/UnrealProjects/Blank425/Blank425.uproject</t>
-  </si>
-  <si>
-    <t>-run=Cook</t>
-  </si>
-  <si>
-    <t>-TargetPlatform=WindowsNoEditor</t>
-  </si>
-  <si>
-    <t>-fileopenlog</t>
-  </si>
-  <si>
-    <t>-unversioned</t>
-  </si>
-  <si>
-    <t>-abslog=D:/UnrealEngine/Engine/Engine/Programs/AutomationTool/Saved/Cook-2021.12.07-15.47.10.txt</t>
-  </si>
-  <si>
-    <t>-stdout</t>
-  </si>
-  <si>
-    <t>-CrashForUAT</t>
-  </si>
-  <si>
-    <t>-unattended</t>
-  </si>
-  <si>
-    <t>-NoLogTimes</t>
-  </si>
-  <si>
-    <t>-UTF8Output</t>
-  </si>
-  <si>
-    <t>https://imzlp.com/posts/22570/</t>
-  </si>
-  <si>
-    <t>https://ue5wiki.com/wiki/e6148e24/</t>
-  </si>
-  <si>
-    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
-  </si>
-  <si>
-    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
-  </si>
-  <si>
-    <t>CMD指令：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须在Debug-Editor模式下执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编辑器里面COOK资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用的是：cmd.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/c ""D:/UE/UnrealEngine-4.27.2-release/Engine/Build/BatchFiles/RunUAT.bat" -ScriptsForProject="D:/Project/MyTest001/MyTest001.uproject" BuildCookRun -nocompileeditor -nop4 -project="D:/Project/MyTest001/MyTest001.uproject" -cook -skipstage -ue4exe="D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe"  -targetplatform=Win64 -ddc=DerivedDataBackendGraph -utf8output"</t>
-  </si>
-  <si>
-    <t>执行UAT里面的代码，内部在创建单独进程执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Cmd.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于有执行到工程里面，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
-  </si>
-  <si>
-    <t>int32 UCookCommandlet::Main(const FString&amp; CmdLineParams)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认是：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(SolutionDir)MyProject004.uproject -skipcompile</t>
-  </si>
-  <si>
-    <t>D:\Project\MyTest001\MyTest001.uproject -run=Cook  -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=D:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes  -UTF8Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\UE\UnrealEngine-4.27.2-release\Engine\Binaries\Win64\UE4Editor-Win64-Debug-Cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdLineParams= -run=Cook -TargetPlatform=WindowsNoEditor -fileopenlog -ddc=DerivedDataBackendGraph -unversioned -abslog=F:\UE\UnrealEngine-4.27.2-release\Engine\Programs\AutomationTool\Saved\Cook-2022.06.22-17.30.21.txt -stdout -CrashForUAT -unattended -NoLogTimes -UTF8Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[TGenericWindowsTargetPlatform&lt;0,0,0&gt;] = {LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, WeakRefs=1, Object={Processes=Empty TargetPlatform={LocalDevice=Ptr=0x000001b0d0ac5120, SharedRefs=1, We...</t>
-  </si>
-  <si>
-    <t>CookByTheBook(Platforms);</t>
-  </si>
-  <si>
-    <t>bool UCookCommandlet::CookByTheBook( const TArray&lt;ITargetPlatform*&gt;&amp; Platforms)</t>
-  </si>
-  <si>
-    <t>UCookOnTheFlyServer *CookOnTheFlyServer = NewObject&lt;UCookOnTheFlyServer&gt;();</t>
-  </si>
-  <si>
-    <t>新建一个对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CookOnTheFlyServer-&gt;Initialize(ECookMode::CookByTheBook, CookFlags, OutputDirectoryOverride);</t>
-  </si>
-  <si>
-    <t>执行初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CookOnTheFlyServer-&gt;StartCookByTheBook(StartupOptions);</t>
-  </si>
-  <si>
-    <t>执行COOK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::StartCookByTheBook( const FCookByTheBookStartupOptions&amp; CookByTheBookStartupOptions )</t>
-  </si>
-  <si>
-    <t>FAssetRegistryModule&amp; AssetRegistryModule = FModuleManager::LoadModuleChecked&lt;FAssetRegistryModule&gt;(TEXT("AssetRegistry"));</t>
-  </si>
-  <si>
-    <t>获取AssetRegistry模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Find all the localized packages and map them back to their source package</t>
-  </si>
-  <si>
-    <t>获取本地语言相关的包和地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取左侧所有目录下面的L10N/当前语言目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取这些目录下面所有的资源（递归）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FAssetData&gt; AssetDataForCultures;</t>
-  </si>
-  <si>
-    <t>AssetRegistry-&gt;GetAssets(Filter, AssetDataForCultures);</t>
-  </si>
-  <si>
-    <t>根据上面资源的名字，建立一个MAP映射&lt;packagename, list&lt;多语言下各个资源&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加黑名单的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册多语言资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取从不cook的目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">设置Shader的平台对应格式？？？ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置全局的shader???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Open the shader code library for the current project or the current DLC pack, depending on which we are cooking</t>
-  </si>
-  <si>
-    <t>开始设置项目自己的shader，名字就是工程名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有目录下（引擎+工程）的软依赖的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始收集需要COOK的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要COOK的地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始COOK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>1. We have cooked a map (configurable asset type)</t>
-  </si>
-  <si>
-    <t>2. We have cooked non-map packages and...</t>
-  </si>
-  <si>
-    <t>死循环，一直COOK，一边COOk一边GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UTexture::SerializeCookedPlatformData(FArchive&amp; Ar)</t>
-  </si>
-  <si>
-    <t>以Utexture举例，内部去掉了很多EDITOR宏的判断，数据量变少了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">.asset </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.uexp</t>
-  </si>
-  <si>
-    <t>为啥要分开了？？？！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
-  </si>
-  <si>
-    <t>FString NewFileName = FPaths::GetBaseFilename(FileName, false) + TEXT(".uexp");</t>
-  </si>
-  <si>
-    <t>NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前COOK的类型如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USoundWave</t>
+  </si>
+  <si>
+    <t>void USoundWave::SerializeCookedPlatformData(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>UTexture</t>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTexture2DArray</t>
+  </si>
+  <si>
+    <t>class UTexture2DArray : public UTexture</t>
+  </si>
+  <si>
+    <t>UTexture2D</t>
+  </si>
+  <si>
+    <t>class UTexture2D : public UTexture</t>
+  </si>
+  <si>
+    <t>UTextureCube</t>
+  </si>
+  <si>
+    <t>class UTextureCube : public UTexture</t>
+  </si>
+  <si>
+    <t>UVolumeTexture</t>
+  </si>
+  <si>
+    <t>class UVolumeTexture : public UTexture</t>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前一直在其他模式下没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK的时候，在对应里面就的serealize函数里面，会去掉EDITOR宏里面冗余的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOK是各个平台独立的资源，不能混用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么生成各个平台自己格式的？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::TextureMetaData);</t>
+  </si>
+  <si>
+    <t>Super::Serialize(Ar);</t>
+  </si>
+  <si>
+    <t>FStripDataFlags StripDataFlags(Ar);</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>if (Ar.IsLoading() &amp;&amp; !Ar.IsTransacting() &amp;&amp; !bCooked &amp;&amp; !GetOutermost()-&gt;HasAnyPackageFlags(PKG_ReloadingForCooker))</t>
+  </si>
+  <si>
+    <t>// The composite texture may not have been loaded yet. We have to defer caching platform</t>
+  </si>
+  <si>
+    <t>// data until post load.</t>
+  </si>
+  <si>
+    <t>if (CompositeTexture == NULL || CompositeTextureMode == CTM_Disabled)</t>
+  </si>
+  <si>
+    <t>#endif // #if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE bool IsCooking() const</t>
+  </si>
+  <si>
+    <t>check(!CookingTargetPlatform || (!IsLoading() &amp;&amp; !IsTransacting() &amp;&amp; IsSaving()));</t>
+  </si>
+  <si>
+    <t>return !!CookingTargetPlatform;</t>
+  </si>
+  <si>
+    <t>Archive里面有一个变量:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const ITargetPlatform* CookingTargetPlatform;</t>
+  </si>
+  <si>
+    <t>怎么赋值的呢？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论上所有对象的Serialize(FArchive&amp; Ar)都有可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，我们需要查看每一个对象的::Serialize(FArchive&amp; Ar)，看其内部是否有cook的逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULandscapeHeightfieldCollisionComponent</t>
+  </si>
+  <si>
+    <t>里面的具体碰撞数据：CookedCollisionData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UStaticMesh</t>
+  </si>
+  <si>
+    <t>GetRenderData()-&gt;Serialize(Ar, this, bCooked);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +684,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,10 +727,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -461,9 +743,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,13 +820,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>569539</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>8807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -838,11 +1125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,229 +1137,415 @@
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="5" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E19" s="3" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F20" s="3" t="s">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E21" s="3" t="s">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E23" s="3" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E25" s="3" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E26" s="3" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F27" s="3" t="s">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R33" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E28" s="3" t="s">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E29" s="3" t="s">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E30" s="3" t="s">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F31" s="3" t="s">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F32" s="3" t="s">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="3" t="s">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="3" t="s">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="5" t="s">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="3" t="s">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="5" t="s">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D46" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="10"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>21</v>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1083,112 +1556,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q9" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>48</v>
+        <v>147</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1724,142 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B14F49-9D40-4C98-8EF4-8BC916FE8D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -1216,17 +1873,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -1234,47 +1891,47 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -1282,27 +1939,27 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -1310,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -1318,17 +1975,17 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -1336,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
@@ -1344,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -1352,20 +2009,20 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
@@ -1373,35 +2030,35 @@
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
         <v>79</v>
-      </c>
-      <c r="G44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D46" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -1409,58 +2066,28 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
         <v>87</v>
-      </c>
-      <c r="E56" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A78BCA5-8B06-43AA-A2B6-4D9C2043FA8C}">
-  <dimension ref="C3:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +2098,246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BE13AA-B6DF-463C-97CB-36469B9323F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:W37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F7" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="G19" s="6"/>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -1482,32 +2345,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1515,4 +2378,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF267F-7065-45F7-9EB2-FE0EC312EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="168">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>必须在Debug-Editor模式下执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,14 +516,6 @@
   </si>
   <si>
     <t>class UVolumeTexture : public UTexture</t>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前一直在其他模式下没用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COOK原理</t>
@@ -632,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1142,7 +1131,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1151,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1159,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -1172,7 +1161,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1379,7 +1368,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1387,10 +1376,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -1401,20 +1390,20 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1422,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1439,13 +1428,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1454,16 +1443,16 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1476,11 +1465,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1493,11 +1482,11 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1510,11 +1499,11 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1522,17 +1511,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -1540,12 +1529,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C6:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1567,7 +1556,7 @@
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
@@ -1577,28 +1566,28 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
@@ -1608,28 +1597,28 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="s">
         <v>10</v>
@@ -1642,10 +1631,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
@@ -1653,17 +1642,17 @@
         <v>10</v>
       </c>
       <c r="S20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -1673,17 +1662,17 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
@@ -1693,7 +1682,7 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
@@ -1708,7 +1697,7 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1724,40 +1713,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
@@ -1776,17 +1759,17 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
@@ -1794,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1802,12 +1785,12 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -1815,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1837,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1845,7 +1828,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1873,17 +1856,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -1891,47 +1874,47 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -1939,27 +1922,27 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -1967,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -1975,17 +1958,17 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -1993,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
@@ -2001,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -2009,20 +1992,20 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D42" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
@@ -2030,35 +2013,35 @@
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
         <v>78</v>
-      </c>
-      <c r="G44" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D46" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -2066,28 +2049,28 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
         <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2109,7 +2092,7 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
@@ -2121,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
@@ -2131,7 +2114,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2153,7 +2136,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2161,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2169,20 +2152,20 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2190,17 +2173,17 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -2208,12 +2191,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2223,10 +2206,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -2239,32 +2222,32 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G19" s="6"/>
       <c r="J19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="W20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="5:23" x14ac:dyDescent="0.2">
@@ -2272,12 +2255,12 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="5:23" x14ac:dyDescent="0.2">
@@ -2285,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2293,7 +2276,7 @@
     </row>
     <row r="27" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="5:23" x14ac:dyDescent="0.2">
@@ -2301,29 +2284,29 @@
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2345,32 +2328,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF267F-7065-45F7-9EB2-FE0EC312EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71210A1C-99B1-4BFA-832F-E2D70E868D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="173">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +616,21 @@
   </si>
   <si>
     <t>GetRenderData()-&gt;Serialize(Ar, this, bCooked);</t>
+  </si>
+  <si>
+    <t>FMaterial</t>
+  </si>
+  <si>
+    <t>void FMaterial::SerializeInlineShaderMap(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>USkeletalMesh</t>
+  </si>
+  <si>
+    <t>FSkeletalMeshRenderData</t>
+  </si>
+  <si>
+    <t>FSkeletalMeshLODRenderData</t>
   </si>
 </sst>
 </file>
@@ -792,6 +807,50 @@
         <a:xfrm>
           <a:off x="8436380" y="5514974"/>
           <a:ext cx="8249702" cy="3361625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>598464</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>122999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2F935B-107B-8F88-2E58-80B60A2CD28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="10887075"/>
+          <a:ext cx="12885714" cy="6609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1377,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,6 +1594,37 @@
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -1842,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2084,7 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71210A1C-99B1-4BFA-832F-E2D70E868D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,13 +630,43 @@
   </si>
   <si>
     <t>FSkeletalMeshLODRenderData</t>
+  </si>
+  <si>
+    <r>
+      <t>UE4后面的几个版本在烘培资源时，默认把部分资源数据提取到.exp文件里，这个.exp文件就是资源</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头文件，里面的数据对应PackageFileSummary类，包含该资源对应的UE4版本号、头部大小、包路径等字段。所以一个资源烘培后生成1个.exp文件+1个.uasset文件。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果想像老版本一样烘培只生成一个.uasset文件的话，可以在项目的DefaultEngine.ini里加上：</t>
+  </si>
+  <si>
+    <t>[/Script/Engine.StreamingSettings]</t>
+  </si>
+  <si>
+    <t>s.EventDrivenLoaderEnabled=False</t>
+  </si>
+  <si>
+    <t>export的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +742,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -735,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -751,6 +801,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1173,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -1427,7 +1481,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1435,10 +1489,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -1635,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1929,10 +1983,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -2171,10 +2225,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,28 +2461,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -2446,15 +2506,38 @@
         <v>96</v>
       </c>
     </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -19,7 +19,7 @@
     <sheet name="COOK流程分析" sheetId="4" r:id="rId5"/>
     <sheet name="图片COOK数据保存" sheetId="5" r:id="rId6"/>
     <sheet name="图片COOK数据加载" sheetId="7" r:id="rId7"/>
-    <sheet name="优化" sheetId="6" r:id="rId8"/>
+    <sheet name="文件格式" sheetId="6" r:id="rId8"/>
     <sheet name="Shader怎么COOK" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,25 @@
   </si>
   <si>
     <t>export的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.umap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.ubulk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.uptnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.ubulk</t>
+  </si>
+  <si>
+    <t>.ushaderbytecode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2462,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2491,39 +2510,64 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D25" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="14" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="187">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,10 +658,6 @@
     <t>s.EventDrivenLoaderEnabled=False</t>
   </si>
   <si>
-    <t>export的意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.umap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,6 +675,22 @@
   <si>
     <t>.ushaderbytecode</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.ufont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular separate bulk data file</t>
+  </si>
+  <si>
+    <t>Memory-mapped bulk data</t>
+  </si>
+  <si>
+    <t>Optional bulk data</t>
+  </si>
+  <si>
+    <t>Stored in the export data</t>
   </si>
 </sst>
 </file>
@@ -2481,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D51"/>
+  <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2519,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -2547,26 +2559,46 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>181</v>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
         <v>182</v>
       </c>
     </row>

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE4CC4-6B1E-4121-A4C2-5C69F1E6235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,20 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="189">
   <si>
     <t>COOK的原理是什么？为什么会出现没变化的文件COOK后文件变化了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Source\Editor\UnrealEd\Private\Commandlets\CookCommandlet.cpp</t>
-  </si>
-  <si>
     <t>收集需要COOK的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UCookOnTheFlyServer::CollectFilesToCook(TArray&lt;FName&gt;&amp; FilesInPath, const TArray&lt;FString&gt;&amp; CookMaps, const TArray&lt;FString&gt;&amp; InCookDirectories, const TArray&lt;FString&gt; &amp;IniMapSections, ECookByTheBookOptions FilesToCookFlags, const TArrayView&lt;const ITargetPl</t>
   </si>
   <si>
     <t>挨个发起COOK</t>
@@ -691,12 +686,29 @@
   </si>
   <si>
     <t>Stored in the export data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UTexture2D::Serialize(FArchive&amp; Ar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UTexture::SerializeCookedPlatformData(FArchive&amp; Ar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UCookOnTheFlyServer::CollectFilesToCook(TArray&lt;FName&gt;&amp; FilesInPath, const TArray&lt;FString&gt;&amp; CookMaps, const TArray&lt;FString&gt;&amp; InCookDirectories, const TArray&lt;FString&gt; &amp;IniMapSections, ECookByTheBookOptions FilesToCookFlags, const TArrayView&lt;const ITargetPl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source\Editor\UnrealEd\Private\Commandlets\CookCommandlet.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1258,11 +1270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1284,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -1305,7 +1317,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1313,206 +1325,206 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E35" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C42" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D46" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1520,11 +1532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1534,20 +1546,20 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1555,13 +1567,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1572,13 +1584,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1587,16 +1599,16 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1609,11 +1621,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1626,11 +1638,11 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1643,11 +1655,11 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1655,17 +1667,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -1673,12 +1685,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -1686,12 +1698,12 @@
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -1699,17 +1711,17 @@
         <v>6</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C6:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1731,153 +1743,153 @@
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q9" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1899,17 +1911,17 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -1929,22 +1941,22 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
@@ -1952,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1960,12 +1972,12 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -1973,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1982,12 +1994,12 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -1995,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2003,7 +2015,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2014,10 +2026,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -2031,17 +2043,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -2049,47 +2061,47 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -2097,27 +2109,27 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -2125,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -2133,17 +2145,17 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -2151,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
@@ -2159,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -2167,20 +2179,20 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D42" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
@@ -2188,35 +2200,35 @@
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D44" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D46" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -2224,28 +2236,28 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
         <v>85</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2256,18 +2268,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
@@ -2279,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
@@ -2289,7 +2301,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2300,18 +2312,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2319,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2327,20 +2339,20 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F7" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2348,17 +2360,17 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -2366,30 +2378,30 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="5:23" x14ac:dyDescent="0.2">
@@ -2397,32 +2409,32 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G19" s="6"/>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="5:23" x14ac:dyDescent="0.2">
@@ -2430,12 +2442,12 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="5:23" x14ac:dyDescent="0.2">
@@ -2443,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2451,7 +2463,7 @@
     </row>
     <row r="27" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="5:23" x14ac:dyDescent="0.2">
@@ -2459,29 +2471,29 @@
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2492,11 +2504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2506,106 +2518,106 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D25" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020"/>
+    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2613,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAE4CC4-6B1E-4121-A4C2-5C69F1E6235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">.asset </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.uexp</t>
   </si>
   <si>
@@ -704,11 +699,15 @@
     <t>Source\Editor\UnrealEd\Private\Commandlets\CookCommandlet.cpp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">.uasset </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1270,10 +1269,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1286,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1296,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1304,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1316,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1324,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -1335,7 +1334,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -1524,7 +1523,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1532,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1546,20 +1545,20 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1567,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1584,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1599,16 +1598,16 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1621,11 +1620,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1638,11 +1637,11 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1655,11 +1654,11 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1667,17 +1666,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -1685,12 +1684,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -1698,12 +1697,12 @@
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -1711,17 +1710,17 @@
         <v>6</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,7 +1742,7 @@
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
@@ -1753,28 +1752,28 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
@@ -1784,28 +1783,28 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q17" t="s">
         <v>8</v>
@@ -1818,10 +1817,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
@@ -1829,17 +1828,17 @@
         <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -1849,17 +1848,17 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
@@ -1869,7 +1868,7 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
@@ -1884,7 +1883,7 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1900,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2268,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2291,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
@@ -2301,7 +2300,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2323,7 +2322,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2331,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2339,20 +2338,20 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2360,17 +2359,17 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -2378,12 +2377,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2393,10 +2392,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -2409,32 +2408,32 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G19" s="6"/>
       <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="W20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="5:23" x14ac:dyDescent="0.2">
@@ -2442,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="5:23" x14ac:dyDescent="0.2">
@@ -2455,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2463,7 +2462,7 @@
     </row>
     <row r="27" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="5:23" x14ac:dyDescent="0.2">
@@ -2471,29 +2470,29 @@
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2504,11 +2503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2518,106 +2517,106 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D25" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2625,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B940280-EBED-4201-8735-7D9BDAF4E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,9 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.uexp</t>
-  </si>
-  <si>
     <t>为啥要分开了？？？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,11 +701,15 @@
     <t xml:space="preserve">.uasset </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>.uexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1286,7 +1288,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1295,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1303,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -1316,7 +1318,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1324,7 +1326,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1336,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -1523,7 +1525,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1531,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1545,20 +1547,20 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1566,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1583,13 +1585,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1598,16 +1600,16 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1620,11 +1622,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1637,11 +1639,11 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1654,11 +1656,11 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1666,17 +1668,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -1684,12 +1686,12 @@
         <v>4</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -1697,12 +1699,12 @@
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -1710,17 +1712,17 @@
         <v>6</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C6:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1742,7 +1744,7 @@
   <sheetData>
     <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
@@ -1752,28 +1754,28 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
@@ -1783,28 +1785,28 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q17" t="s">
         <v>8</v>
@@ -1817,10 +1819,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
@@ -1828,17 +1830,17 @@
         <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -1848,17 +1850,17 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
@@ -1868,7 +1870,7 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
@@ -1883,7 +1885,7 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1899,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2025,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2267,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2290,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
@@ -2300,7 +2302,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2322,7 +2324,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2330,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2338,20 +2340,20 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2359,17 +2361,17 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -2377,12 +2379,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2392,10 +2394,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -2408,32 +2410,32 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G19" s="6"/>
       <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="5:23" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="W20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="5:23" x14ac:dyDescent="0.2">
@@ -2441,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="5:23" x14ac:dyDescent="0.2">
@@ -2454,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2462,7 +2464,7 @@
     </row>
     <row r="27" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="5:23" x14ac:dyDescent="0.2">
@@ -2470,29 +2472,29 @@
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2503,11 +2505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2517,106 +2519,106 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D25" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020"/>
+    <hyperlink ref="C23" r:id="rId1" display="https://so.csdn.net/so/search?q=%E5%A4%B4%E6%96%87%E4%BB%B6&amp;spm=1001.2101.3001.7020" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2624,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_cook.xlsx
+++ b/doc/ue_cook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B940280-EBED-4201-8735-7D9BDAF4E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6910CD3-658A-4EA8-9CED-B011424FF345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2508,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
